--- a/excel/assignments/Assignment3a_Workbook.xlsx
+++ b/excel/assignments/Assignment3a_Workbook.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7860"/>
   </bookViews>
   <sheets>
-    <sheet name="March" sheetId="1" r:id="rId1"/>
+    <sheet name="März" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -132,15 +132,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Email Address</t>
-  </si>
-  <si>
     <t>heidi.lee@vestainsurance.com</t>
   </si>
   <si>
@@ -232,6 +223,15 @@
   </si>
   <si>
     <t>philip.ortiz@vestainsurance.com</t>
+  </si>
+  <si>
+    <t>Email Addresse</t>
+  </si>
+  <si>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Vorname</t>
   </si>
 </sst>
 </file>
@@ -691,8 +691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,13 +723,13 @@
     </row>
     <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="D3" s="6">
         <v>41334</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="4" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>1</v>
@@ -773,7 +773,7 @@
     </row>
     <row r="6" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="7" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>4</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="8" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>5</v>
@@ -810,7 +810,7 @@
     </row>
     <row r="9" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>6</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="10" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>7</v>
@@ -832,7 +832,7 @@
     </row>
     <row r="11" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>8</v>
@@ -843,7 +843,7 @@
     </row>
     <row r="12" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
@@ -854,7 +854,7 @@
     </row>
     <row r="13" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>10</v>
@@ -865,7 +865,7 @@
     </row>
     <row r="14" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
@@ -876,7 +876,7 @@
     </row>
     <row r="15" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>12</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="16" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>13</v>
@@ -898,7 +898,7 @@
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>14</v>
@@ -909,7 +909,7 @@
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>15</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>16</v>
@@ -931,7 +931,7 @@
     </row>
     <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>17</v>
@@ -942,7 +942,7 @@
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>18</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>19</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>20</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>21</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>22</v>
@@ -997,7 +997,7 @@
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>23</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>24</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>25</v>
@@ -1030,7 +1030,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>26</v>
@@ -1052,7 +1052,7 @@
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>28</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>30</v>
@@ -1085,7 +1085,7 @@
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>31</v>
@@ -1096,7 +1096,7 @@
     </row>
     <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>32</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>33</v>
